--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例初始化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例初始化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="铺层数据库制作工具" sheetId="4" r:id="rId1"/>
@@ -823,6 +823,22 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际值如果需要从控件中获取
+唯一标识；唯一标识方法；所操作实例</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -843,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -870,7 +886,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -913,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="270">
   <si>
     <t>预期值信息类型</t>
   </si>
@@ -1359,26 +1375,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>180；20；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；40；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；40；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；60；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；60；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>40；80；Edit</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1387,42 +1383,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；10；Button0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；30；Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>150；50；Button3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>方式一</t>
   </si>
   <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选择材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1641,22 +1609,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>材料信息-&gt;定义复合材料参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ta</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sa</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1665,23 +1621,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>第三行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>控件文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1722,11 +1662,311 @@
     </r>
   </si>
   <si>
+    <t>定义材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>求解计算-&gt;求解计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定Excel模板文件路径；yz1d.xlsx；打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择f06文件；update_Htail.fem；打开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认另存为；是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csh002</t>
+  </si>
+  <si>
+    <t>csh003</t>
+  </si>
+  <si>
+    <t>csh004</t>
+  </si>
+  <si>
+    <t>csh005</t>
+  </si>
+  <si>
+    <t>csh006</t>
+  </si>
+  <si>
+    <t>csh007</t>
+  </si>
+  <si>
+    <t>csh008</t>
+  </si>
+  <si>
+    <t>csh009</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csh001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷信息--载荷数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息-&gt;铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸信息-&gt;一维单元尺寸定义（模板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸信息-&gt;二维单元尺寸定义（模板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷信息-&gt;载荷数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；20；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；40；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；40；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；60；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；60；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；10；Button0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；30；Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>编辑材料许用值曲线弹窗</t>
+    <t>控件文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1734,7 +1974,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>执行</t>
+    <t>控件文本</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1742,99 +1982,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>定义材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>求解计算-&gt;求解计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定Excel模板文件路径；yz1d.xlsx；打开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择f06文件；update_Htail.fem；打开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认另存为；是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例初始化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>csh002</t>
-  </si>
-  <si>
-    <t>csh003</t>
-  </si>
-  <si>
-    <t>csh004</t>
-  </si>
-  <si>
-    <t>csh005</t>
-  </si>
-  <si>
-    <t>csh006</t>
-  </si>
-  <si>
-    <t>csh007</t>
-  </si>
-  <si>
-    <t>csh008</t>
-  </si>
-  <si>
-    <t>csh009</t>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>csh001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷信息--载荷数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层信息-&gt;铺层数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸信息-&gt;一维单元尺寸定义（模板）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸信息-&gt;二维单元尺寸定义（模板）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷信息-&gt;载荷数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>材料信息-&gt;定义复合材料参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1966,7 +2118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2017,6 +2169,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2325,7 +2480,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1"/>
@@ -2341,25 +2496,25 @@
     <row r="1" spans="1:8" s="4" customFormat="1" ht="60" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51.75" customHeight="1">
@@ -2520,7 +2675,7 @@
     </row>
     <row r="8" spans="1:8" ht="51.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>44</v>
@@ -2607,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="47.25" customHeight="1"/>
@@ -2624,22 +2779,22 @@
     <row r="1" spans="1:7" s="4" customFormat="1" ht="47.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1">
@@ -2713,7 +2868,7 @@
     </row>
     <row r="5" spans="1:7" ht="47.25" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -2791,7 +2946,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>40</v>
@@ -2877,22 +3032,22 @@
     <row r="1" spans="1:7" s="4" customFormat="1" ht="37.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="37.5" customHeight="1">
@@ -3114,7 +3269,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1"/>
@@ -3132,28 +3287,28 @@
     <row r="1" spans="1:9" s="4" customFormat="1" ht="39" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1">
@@ -3292,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6" s="12">
         <v>0</v>
@@ -3445,22 +3600,22 @@
     <row r="1" spans="1:7" s="4" customFormat="1" ht="30.75" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1">
@@ -3612,7 +3767,7 @@
         <v>44</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>98</v>
@@ -3638,7 +3793,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>44</v>
@@ -3661,7 +3816,7 @@
         <v>44</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>40</v>
@@ -3682,10 +3837,10 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1"/>
+      <selection activeCell="B1" sqref="B1:U1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="45" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" style="9" customWidth="1"/>
     <col min="2" max="3" width="9" style="9"/>
@@ -3697,191 +3852,191 @@
     <row r="1" spans="1:21" ht="127.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>113</v>
+        <v>217</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>113</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>113</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>113</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>54</v>
+        <v>223</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>12</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>226</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="M3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>28</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>90</v>
@@ -3889,137 +4044,137 @@
     </row>
     <row r="4" spans="1:21" ht="45" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="45" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>35</v>
+        <v>244</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>33</v>
+        <v>246</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>33</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="45" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -4084,262 +4239,262 @@
     </row>
     <row r="7" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>248</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="F7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="12" t="s">
+      <c r="H7" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="K7" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>130</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>131</v>
+        <v>254</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>129</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>44</v>
+        <v>250</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4351,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="105" customHeight="1"/>
@@ -4366,224 +4521,230 @@
     <col min="14" max="15" width="10.875" style="8"/>
     <col min="16" max="16" width="7.625" style="8" customWidth="1"/>
     <col min="17" max="17" width="10.875" style="7"/>
-    <col min="18" max="25" width="7.375" style="7" customWidth="1"/>
-    <col min="26" max="26" width="10.875" style="7"/>
-    <col min="27" max="27" width="10.875" style="8"/>
-    <col min="28" max="28" width="6" style="8" customWidth="1"/>
-    <col min="29" max="29" width="10.875" style="8"/>
-    <col min="30" max="30" width="7.625" style="8" customWidth="1"/>
-    <col min="32" max="16384" width="10.875" style="7"/>
+    <col min="18" max="24" width="7.375" style="7" customWidth="1"/>
+    <col min="25" max="25" width="10.875" style="7"/>
+    <col min="26" max="26" width="7.375" style="7" customWidth="1"/>
+    <col min="27" max="27" width="10.875" style="7"/>
+    <col min="28" max="28" width="10.875" style="8"/>
+    <col min="29" max="29" width="6" style="8" customWidth="1"/>
+    <col min="30" max="30" width="10.875" style="8"/>
+    <col min="31" max="31" width="7.625" style="8" customWidth="1"/>
+    <col min="33" max="16384" width="10.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="4" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="6" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:33" s="6" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG2" s="5"/>
+    </row>
+    <row r="3" spans="1:33" ht="105" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF2" s="5"/>
-    </row>
-    <row r="3" spans="1:32" ht="105" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -4595,93 +4756,94 @@
         <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="AB3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AE3" s="5">
         <v>6</v>
       </c>
-      <c r="AE3" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="105" customHeight="1">
+      <c r="AF3" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="105" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>16</v>
@@ -4693,292 +4855,295 @@
         <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="AB4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AE4" s="5">
         <v>6</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AF4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="105" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="105" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X6" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" ht="105" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="AC6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG6" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="105" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="X5" s="10" t="s">
+      <c r="D7" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="105" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="105" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>191</v>
       </c>
       <c r="G7" s="10">
         <v>0</v>
@@ -4993,86 +5158,87 @@
         <v>4500</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AC7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="T7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="U7" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="V7" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z7" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AG7" s="5"/>
+    </row>
+    <row r="8" spans="1:33" ht="105" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF7" s="5"/>
-    </row>
-    <row r="8" spans="1:32" ht="105" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -5099,74 +5265,75 @@
         <v>3200</v>
       </c>
       <c r="O8" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="P8" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="T8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="U8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="V8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF8" s="10"/>
-    </row>
-    <row r="9" spans="1:32" ht="105" customHeight="1">
+      <c r="AG8" s="10"/>
+    </row>
+    <row r="9" spans="1:33" ht="105" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -5181,170 +5348,172 @@
         <v>5000</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG9" s="10"/>
+    </row>
+    <row r="10" spans="1:33" ht="105" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="R10" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="O9" s="10" t="s">
+      <c r="S10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="P9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="S9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="U9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA9" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB9" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC9" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF9" s="10"/>
-    </row>
-    <row r="10" spans="1:32" ht="105" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="P10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q10" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="U10" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y1 Y3:Y4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 Z3:Z4">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11:M1048576 Z11:Z1048576 Z1:Z6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11:M1048576 AA1:AA6 AA11:AA1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG4">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例初始化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例初始化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="铺层数据库制作工具" sheetId="4" r:id="rId1"/>
@@ -2762,7 +2762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4508,8 +4508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="105" customHeight="1"/>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例初始化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例初始化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="铺层数据库制作工具" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="定义材料许用值" sheetId="9" r:id="rId6"/>
     <sheet name="测试用例步骤" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="270">
   <si>
     <t>预期值信息类型</t>
   </si>
@@ -2479,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1"/>
@@ -4506,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="105" customHeight="1"/>
@@ -4529,10 +4529,11 @@
     <col min="29" max="29" width="6" style="8" customWidth="1"/>
     <col min="30" max="30" width="10.875" style="8"/>
     <col min="31" max="31" width="7.625" style="8" customWidth="1"/>
-    <col min="33" max="16384" width="10.875" style="7"/>
+    <col min="33" max="33" width="13.5" style="10" customWidth="1"/>
+    <col min="34" max="16384" width="10.875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" ht="87" customHeight="1">
+    <row r="1" spans="1:34" s="4" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>204</v>
       </c>
@@ -4629,11 +4630,14 @@
       <c r="AF1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="6" customFormat="1" ht="73.5" customHeight="1">
+    <row r="2" spans="1:34" s="6" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>205</v>
       </c>
@@ -4728,9 +4732,10 @@
       <c r="AF2" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="AG2" s="5"/>
-    </row>
-    <row r="3" spans="1:33" ht="105" customHeight="1">
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="5"/>
+    </row>
+    <row r="3" spans="1:34" ht="105" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>196</v>
       </c>
@@ -4825,11 +4830,12 @@
       <c r="AF3" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="105" customHeight="1">
+    <row r="4" spans="1:34" ht="105" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>197</v>
       </c>
@@ -4924,11 +4930,12 @@
       <c r="AF4" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="105" customHeight="1">
+    <row r="5" spans="1:34" ht="105" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>198</v>
       </c>
@@ -5023,11 +5030,12 @@
       <c r="AF5" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AG5" s="10" t="s">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="105" customHeight="1">
+    <row r="6" spans="1:34" ht="105" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>199</v>
       </c>
@@ -5122,11 +5130,12 @@
       <c r="AF6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="105" customHeight="1">
+    <row r="7" spans="1:34" ht="105" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>200</v>
       </c>
@@ -5219,9 +5228,10 @@
       <c r="AF7" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="AG7" s="5"/>
-    </row>
-    <row r="8" spans="1:33" ht="105" customHeight="1">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="5"/>
+    </row>
+    <row r="8" spans="1:34" ht="105" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>201</v>
       </c>
@@ -5314,9 +5324,10 @@
       <c r="AF8" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="AG8" s="10"/>
-    </row>
-    <row r="9" spans="1:33" ht="105" customHeight="1">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="10"/>
+    </row>
+    <row r="9" spans="1:34" ht="105" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>202</v>
       </c>
@@ -5409,9 +5420,10 @@
       <c r="AF9" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="AG9" s="10"/>
-    </row>
-    <row r="10" spans="1:33" ht="105" customHeight="1">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="10"/>
+    </row>
+    <row r="10" spans="1:34" ht="105" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>203</v>
       </c>
@@ -5498,22 +5510,31 @@
       <c r="AD10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AE10" s="10"/>
+      <c r="AE10" s="5">
+        <v>0</v>
+      </c>
       <c r="AF10" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="AG10" s="11"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="11"/>
+    </row>
+    <row r="11" spans="1:34" ht="105" customHeight="1">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" ht="105" customHeight="1">
+      <c r="AG12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 Z3:Z4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z1 Z3:Z4 AG3:AG1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M11:M1048576 AA1:AA6 AA11:AA1048576">
       <formula1>"信息窗口,警告弹窗,控件文本"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH4">
       <formula1>"拼接路径,不拼接路径"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例初始化.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/initialize/自动化测试用例初始化.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="铺层数据库制作工具" sheetId="4" r:id="rId1"/>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="271">
   <si>
     <t>预期值信息类型</t>
   </si>
@@ -1694,299 +1694,303 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>用例初始化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csh002</t>
+  </si>
+  <si>
+    <t>csh003</t>
+  </si>
+  <si>
+    <t>csh004</t>
+  </si>
+  <si>
+    <t>csh005</t>
+  </si>
+  <si>
+    <t>csh006</t>
+  </si>
+  <si>
+    <t>csh007</t>
+  </si>
+  <si>
+    <t>csh008</t>
+  </si>
+  <si>
+    <t>csh009</t>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>csh001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷信息--载荷数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息-&gt;铺层数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸信息-&gt;一维单元尺寸定义（模板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸信息-&gt;二维单元尺寸定义（模板）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷信息-&gt;载荷数据库制作工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐标--单击--文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；20；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；40；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；40；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40；60；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180；60；Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；10；Button0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150；30；Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择材料许用值曲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件文本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义材料许用值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料信息-&gt;定义复合材料参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>模块唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例初始化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>csh002</t>
-  </si>
-  <si>
-    <t>csh003</t>
-  </si>
-  <si>
-    <t>csh004</t>
-  </si>
-  <si>
-    <t>csh005</t>
-  </si>
-  <si>
-    <t>csh006</t>
-  </si>
-  <si>
-    <t>csh007</t>
-  </si>
-  <si>
-    <t>csh008</t>
-  </si>
-  <si>
-    <t>csh009</t>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>csh001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷信息--载荷数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层信息-&gt;铺层数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸信息-&gt;一维单元尺寸定义（模板）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸信息-&gt;二维单元尺寸定义（模板）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷信息-&gt;载荷数据库制作工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标--单击--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标--单击--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标--单击--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标--单击--文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮--弹窗套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮--弹窗套件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；20；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；40；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；40；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40；60；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180；60；Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；10；Button0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150；30；Button2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方式一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗口一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件参数一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择材料许用值曲线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套件类型二</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ca</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个被测模块</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件文本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义材料许用值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料信息-&gt;定义复合材料参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2479,7 +2483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -3914,99 +3918,99 @@
     </row>
     <row r="2" spans="1:21" ht="45" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>216</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>217</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>113</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>113</v>
       </c>
       <c r="J2" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>218</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>219</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>113</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>221</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>83</v>
       </c>
       <c r="P2" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="R2" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="S2" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="T2" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="45" customHeight="1">
       <c r="A3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>114</v>
       </c>
       <c r="F3" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>115</v>
@@ -4015,16 +4019,16 @@
         <v>116</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N3" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="P3" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>117</v>
@@ -4033,10 +4037,10 @@
         <v>28</v>
       </c>
       <c r="S3" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="T3" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="T3" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="U3" s="10" t="s">
         <v>90</v>
@@ -4044,7 +4048,7 @@
     </row>
     <row r="4" spans="1:21" ht="45" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>118</v>
@@ -4053,7 +4057,7 @@
         <v>118</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>118</v>
@@ -4112,25 +4116,25 @@
         <v>61</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>241</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>242</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>108</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>108</v>
@@ -4139,16 +4143,16 @@
         <v>108</v>
       </c>
       <c r="K5" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>34</v>
@@ -4157,24 +4161,24 @@
         <v>34</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>34</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="45" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="10">
         <v>0</v>
@@ -4239,262 +4243,262 @@
     </row>
     <row r="7" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>251</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>252</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="N7" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="P7" s="10" t="s">
+      <c r="Q7" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="S7" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>252</v>
-      </c>
       <c r="I8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O8" s="10" t="s">
         <v>119</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S8" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="T8" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>252</v>
-      </c>
       <c r="U8" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>251</v>
-      </c>
       <c r="E9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4508,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:AH1"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="105" customHeight="1"/>
@@ -4535,7 +4539,7 @@
   <sheetData>
     <row r="1" spans="1:34" s="4" customFormat="1" ht="87" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>187</v>
@@ -4607,7 +4611,7 @@
         <v>6</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>7</v>
@@ -4628,7 +4632,7 @@
         <v>147</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="AG1" s="4" t="s">
         <v>269</v>
@@ -4639,13 +4643,13 @@
     </row>
     <row r="2" spans="1:34" s="6" customFormat="1" ht="73.5" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>140</v>
@@ -4737,13 +4741,13 @@
     </row>
     <row r="3" spans="1:34" ht="105" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>152</v>
@@ -4837,13 +4841,13 @@
     </row>
     <row r="4" spans="1:34" ht="105" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>159</v>
@@ -4937,10 +4941,10 @@
     </row>
     <row r="5" spans="1:34" ht="105" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>188</v>
@@ -5037,13 +5041,13 @@
     </row>
     <row r="6" spans="1:34" ht="105" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>165</v>
@@ -5128,7 +5132,7 @@
         <v>1</v>
       </c>
       <c r="AF6" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="5" t="s">
@@ -5137,16 +5141,16 @@
     </row>
     <row r="7" spans="1:34" ht="105" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>140</v>
@@ -5167,7 +5171,7 @@
         <v>4500</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>140</v>
@@ -5176,7 +5180,7 @@
         <v>140</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O7" s="10" t="s">
         <v>141</v>
@@ -5191,13 +5195,13 @@
         <v>140</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T7" s="10" t="s">
         <v>140</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V7" s="10" t="s">
         <v>140</v>
@@ -5208,13 +5212,13 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AA7" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AA7" s="10" t="s">
+      <c r="AB7" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>263</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>183</v>
@@ -5233,22 +5237,22 @@
     </row>
     <row r="8" spans="1:34" ht="105" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>176</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G8" s="10">
         <v>0</v>
@@ -5304,7 +5308,7 @@
       <c r="X8" s="10"/>
       <c r="Y8" s="10"/>
       <c r="Z8" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA8" s="10" t="s">
         <v>181</v>
@@ -5329,13 +5333,13 @@
     </row>
     <row r="9" spans="1:34" ht="105" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>140</v>
@@ -5368,7 +5372,7 @@
         <v>140</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>141</v>
@@ -5380,13 +5384,13 @@
         <v>140</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="U9" s="10" t="s">
         <v>140</v>
@@ -5395,12 +5399,12 @@
         <v>140</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AA9" s="10" t="s">
         <v>181</v>
@@ -5412,7 +5416,7 @@
         <v>183</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AE9" s="5">
         <v>0</v>
@@ -5425,10 +5429,10 @@
     </row>
     <row r="10" spans="1:34" ht="105" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>176</v>
@@ -5443,7 +5447,7 @@
         <v>140</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>140</v>
@@ -5467,7 +5471,7 @@
         <v>140</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>140</v>
@@ -5479,7 +5483,7 @@
         <v>177</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>141</v>
@@ -5488,10 +5492,10 @@
         <v>141</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="X10" s="10"/>
       <c r="Y10" s="10"/>
@@ -5499,10 +5503,10 @@
         <v>145</v>
       </c>
       <c r="AA10" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB10" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="AB10" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="AC10" s="5" t="s">
         <v>186</v>
